--- a/regions/4/soflis meurneoba/3. pirutkvis suladoba.xlsx
+++ b/regions/4/soflis meurneoba/3. pirutkvis suladoba.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\აჭარის არ\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\აჭარის არ\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="14">
   <si>
     <t>-</t>
   </si>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,6 +203,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -233,7 +242,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -554,7 +563,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
+    <row r="1" spans="1:19" ht="30" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -574,8 +583,10 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -625,8 +636,14 @@
       <c r="Q2" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="R2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -678,8 +695,14 @@
       <c r="Q3" s="5">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="R3" s="5">
+        <v>48.5</v>
+      </c>
+      <c r="S3" s="5">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -731,8 +754,14 @@
       <c r="Q4" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="R4" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="S4" s="5">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -784,8 +813,12 @@
       <c r="Q5" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="R5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -837,8 +870,12 @@
       <c r="Q6" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="R6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -890,8 +927,12 @@
       <c r="Q7" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="R7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -943,8 +984,12 @@
       <c r="Q8" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="R8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -996,8 +1041,12 @@
       <c r="Q9" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="R9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1049,8 +1098,12 @@
       <c r="Q10" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="R10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1102,8 +1155,14 @@
       <c r="Q11" s="5">
         <v>101.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="R11" s="5">
+        <v>96.4</v>
+      </c>
+      <c r="S11" s="5">
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1155,8 +1214,14 @@
       <c r="Q12" s="5">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="R12" s="5">
+        <v>20</v>
+      </c>
+      <c r="S12" s="5">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1177,7 +1242,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1200,9 +1265,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
